--- a/biology/Botanique/Erisma/Erisma.xlsx
+++ b/biology/Botanique/Erisma/Erisma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erisma est un genre de plantes de la famille des Vochysiaceae, présent dans le bassin amazonien et dans les Guyanes, comptant 22 à 30 espèces, et dont l'espèce type est Erisma floribundum Rudge, 1805.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Erisma, décrit pour la première fois en 1805 par le botaniste anglais Edward Rudge (en) (1763-1846). Ce nom vient du grec ancien ερεισω ou ἔρεισμα, ereisma, signifiant « Arc-boutant, étai », en raison d'après l'auteur, des bractées des fleurs soutenues avec beaucoup d'élégance[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Erisma, décrit pour la première fois en 1805 par le botaniste anglais Edward Rudge (en) (1763-1846). Ce nom vient du grec ancien ερεισω ou ἔρεισμα, ereisma, signifiant « Arc-boutant, étai », en raison d'après l'auteur, des bractées des fleurs soutenues avec beaucoup d'élégance.
 Ce mot signifie aussi « cause de dispute », ce qui peut aussi faire référence à l'histoire du spécimen-type de Erisma floribundum, récolté par le Français Martin en Guyane, capturé et fait prisonnier par des corsaires britanniques lors de son trajet de retour vers Paris, 
-son herbier gardé comme butin. Le nom est également bien adapté pour indiquer la position taxonomique complexe du genre[3].
+son herbier gardé comme butin. Le nom est également bien adapté pour indiquer la position taxonomique complexe du genre.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme selon Catalogue of Life                                   (30 mai 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme selon Catalogue of Life                                   (30 mai 2022) :
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (30 mai 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (30 mai 2022) :
 Erisma arietinum M.L.Kawas.
 Erisma bicolor Ducke
 Erisma bicolor var. bicolor 
@@ -608,7 +626,7 @@
 Erisma splendens Stafleu
 Erisma tessmannii Pilg.
 Erisma uncinatum Warm.
-Selon World Flora Online (WFO)       (30 mai 2022)[5] :
+Selon World Flora Online (WFO)       (30 mai 2022) :
 Erisma arietinum M.L.Kawas.
 Erisma bicolor Ducke
 Erisma blancoa Marc.-Berti
@@ -631,7 +649,7 @@
 Erisma splendens Stafleu
 Erisma tessmannii Pilg.
 Erisma uncinatum Warm.
-Selon Tropicos                                           (30 mai 2022)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 mai 2022) (Attention liste brute contenant possiblement des synonymes) :
 Erisma arietinum M.L. Kawas., 1998
 Erisma bicolor Ducke, 1932
 Erisma blancoa Marc.-Berti, 1986
